--- a/task_config.xlsx
+++ b/task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,22 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_email.py mail_private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_email.py mail_private</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +424,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -440,7 +456,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -457,12 +473,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -504,7 +520,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +537,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,7 +588,9 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
   </sheetData>
